--- a/SatteliteData/DM.xlsx
+++ b/SatteliteData/DM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Pojects\SatelliteResearch\SatteliteData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\SatelliteResearch\SatteliteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8D1964-9171-45C9-AB3A-F42051073350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD846EE2-926E-4AEF-AC50-E410CE0889C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7702E3C5-F223-4A88-BB99-71F182C04357}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{7702E3C5-F223-4A88-BB99-71F182C04357}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Буря</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Земля</t>
+  </si>
+  <si>
+    <t>СГ 4</t>
+  </si>
+  <si>
+    <t>СГ 3</t>
   </si>
 </sst>
 </file>
@@ -119,17 +125,82 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Молния</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46814955356772459"/>
+          <c:y val="4.3242364714956773E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0056391465918239E-2"/>
+          <c:x val="4.7634589926786618E-2"/>
           <c:y val="2.2036009731502375E-2"/>
-          <c:w val="0.89542215638886724"/>
-          <c:h val="0.85712925968049603"/>
+          <c:w val="0.9278440248637293"/>
+          <c:h val="0.91010601391302237"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -139,7 +210,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>СГ 4</c:v>
+            <c:v>СГ 3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
@@ -155,309 +226,312 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$N$8:$N$107</c:f>
+              <c:f>Лист1!$F$7:$F$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3.8273277230987328E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5574692875244038</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1770450963761956</c:v>
+                  <c:v>1.36412603660733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6998991622361528</c:v>
+                  <c:v>2.6467561615588266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.424526250166636</c:v>
+                  <c:v>4.1160783981531353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8747933733729463</c:v>
+                  <c:v>5.4667142185095221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5825710897831797</c:v>
+                  <c:v>6.8913150668651264</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.303847061140537</c:v>
+                  <c:v>8.2453623775716309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.96988433865342</c:v>
+                  <c:v>9.5121320763744919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.475161432160951</c:v>
+                  <c:v>10.855468969033973</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.938567217160331</c:v>
+                  <c:v>12.283008606461314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.2578079856772</c:v>
+                  <c:v>13.868239064388014</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.467241159245592</c:v>
+                  <c:v>15.066031870803993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.745866098091568</c:v>
+                  <c:v>15.862215632939741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.385655553804163</c:v>
+                  <c:v>17.783641078823329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.573361666924736</c:v>
+                  <c:v>19.555324481227395</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.561431186432412</c:v>
+                  <c:v>19.8486725574083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.158663366523609</c:v>
+                  <c:v>21.891515536601993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.301672377850778</c:v>
+                  <c:v>23.368325079422579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.859003295771885</c:v>
+                  <c:v>24.400495189496773</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.902184121550764</c:v>
+                  <c:v>26.035882202478046</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.479127952338374</c:v>
+                  <c:v>26.352593212695524</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.684243322840729</c:v>
+                  <c:v>28.416989949366663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.135699149448286</c:v>
+                  <c:v>29.544103878003149</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.763970816965688</c:v>
+                  <c:v>31.626179368852537</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.583753876278124</c:v>
+                  <c:v>32.122207861180158</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.82026228540299</c:v>
+                  <c:v>33.655021377831773</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.665639819688536</c:v>
+                  <c:v>35.750029124716683</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44.816152426728877</c:v>
+                  <c:v>35.577918639756405</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.572536647688771</c:v>
+                  <c:v>37.96410280727693</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48.145684335773524</c:v>
+                  <c:v>40.599682734822252</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49.647770324293241</c:v>
+                  <c:v>40.982201653731721</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.153603559239805</c:v>
+                  <c:v>42.277616687307415</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53.040338864929076</c:v>
+                  <c:v>43.570470113912222</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53.850360995875548</c:v>
+                  <c:v>45.75839047937847</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>55.699682219827288</c:v>
+                  <c:v>47.514768818286946</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>57.87903785028454</c:v>
+                  <c:v>47.684684815322449</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>58.449057880959657</c:v>
+                  <c:v>48.145313566455513</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.479308935285331</c:v>
+                  <c:v>49.036004353032617</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>64.029764379583327</c:v>
+                  <c:v>51.881826324282265</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>62.407168079096557</c:v>
+                  <c:v>53.084454333758877</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>64.40071637753006</c:v>
+                  <c:v>52.400357315396178</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65.424664999422944</c:v>
+                  <c:v>55.165058814123171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>68.933687846631926</c:v>
+                  <c:v>55.716296448265538</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>67.495668886560097</c:v>
+                  <c:v>57.951819651462877</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>72.50429310978258</c:v>
+                  <c:v>61.029689041275915</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>74.425136836791978</c:v>
+                  <c:v>60.735473272840686</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>74.313618471112179</c:v>
+                  <c:v>61.736071006273484</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>73.778084642128036</c:v>
+                  <c:v>63.292074140691348</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79.762653806133272</c:v>
+                  <c:v>67.469815843976264</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>79.801683921122901</c:v>
+                  <c:v>65.771317179979008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>80.402920405879399</c:v>
+                  <c:v>68.286713645831554</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82.586994423393747</c:v>
+                  <c:v>69.067394399224028</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>84.944958008735995</c:v>
+                  <c:v>70.901926678025703</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>85.774051500886571</c:v>
+                  <c:v>71.649062249825931</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85.73373674292246</c:v>
+                  <c:v>72.786914301137401</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>88.403510431560051</c:v>
+                  <c:v>75.854173993613998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>89.062184792874973</c:v>
+                  <c:v>75.290126914213161</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>91.245206873769078</c:v>
+                  <c:v>75.157287213460108</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>93.625381729199617</c:v>
+                  <c:v>77.423800040818605</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>94.75773373448942</c:v>
+                  <c:v>79.439506429591361</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>95.671993057446826</c:v>
+                  <c:v>83.291258743943189</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>98.559610409036623</c:v>
+                  <c:v>82.62098789574847</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.819150148154222</c:v>
+                  <c:v>83.371783705927953</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>102.78471737328017</c:v>
+                  <c:v>85.76316811466846</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>102.36640104362945</c:v>
+                  <c:v>86.409922519828953</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>104.28146759855986</c:v>
+                  <c:v>86.84064662764122</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>104.66869910335035</c:v>
+                  <c:v>90.773731951231525</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>106.00795078465289</c:v>
+                  <c:v>93.155670900584028</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>108.95810367195011</c:v>
+                  <c:v>92.580292480135896</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>112.26610042560888</c:v>
+                  <c:v>94.658817078859855</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>110.69038854818898</c:v>
+                  <c:v>97.008534457095223</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>114.26682315705986</c:v>
+                  <c:v>94.952368196371552</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>113.68891336064195</c:v>
+                  <c:v>100.89219901111288</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>118.14980822932542</c:v>
+                  <c:v>96.756098167858198</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>117.15237604303873</c:v>
+                  <c:v>104.15436135116057</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>122.22013691797642</c:v>
+                  <c:v>103.74726347333477</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>123.27033173022804</c:v>
+                  <c:v>102.62932042278489</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>122.97750321432153</c:v>
+                  <c:v>102.19100588148991</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>125.88820327018396</c:v>
+                  <c:v>106.16943415860592</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>128.93150268237048</c:v>
+                  <c:v>109.32101185631271</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>129.7815405351482</c:v>
+                  <c:v>109.4674059703724</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>129.44901667382965</c:v>
+                  <c:v>108.36429167037737</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>128.55554233083876</c:v>
+                  <c:v>109.05207668509037</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>130.04997334373596</c:v>
+                  <c:v>114.0078562604823</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>138.3258459353342</c:v>
+                  <c:v>115.05223391147997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>133.03290281832682</c:v>
+                  <c:v>113.57173866521066</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>140.88535816205848</c:v>
+                  <c:v>116.14366495302907</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>142.33427158980848</c:v>
+                  <c:v>118.02218565545149</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>140.09398750686253</c:v>
+                  <c:v>112.30275186875379</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>143.09575355102984</c:v>
+                  <c:v>124.0994919746514</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>140.96144433084305</c:v>
+                  <c:v>119.1490214066644</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>146.28052317332049</c:v>
+                  <c:v>125.06547748137638</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>148.18988875823339</c:v>
+                  <c:v>130.00469980719535</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>153.7385151778513</c:v>
+                  <c:v>126.66947798072077</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>152.12691208200218</c:v>
+                  <c:v>128.11797669649124</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>152.74385549790358</c:v>
+                  <c:v>125.65956080017786</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>156.09725161750336</c:v>
+                  <c:v>133.52626141772006</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>154.70122479496086</c:v>
+                  <c:v>131.06673517472126</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>158.4603114085256</c:v>
+                  <c:v>136.84967254741306</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>130.59495196904169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,7 +539,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-599E-4DCD-A270-3A938BCE4E27}"/>
+              <c16:uniqueId val="{00000000-B859-41C4-9FD9-C733F24381AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -473,7 +547,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>СГ 3</c:v>
+            <c:v>СГ 4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
@@ -489,309 +563,312 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$O$8:$O$107</c:f>
+              <c:f>Лист1!$E$7:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.13621559198564537</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3885723895567086</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6015099476126267</c:v>
+                  <c:v>1.7320508075688528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1028353062539686</c:v>
+                  <c:v>3.0764006124939689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2794876940080613</c:v>
+                  <c:v>4.4225316534330643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.710743292007164</c:v>
+                  <c:v>5.9237385197416197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.678820225146676</c:v>
+                  <c:v>7.4439593611503492</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.05321869811721</c:v>
+                  <c:v>8.800862504056747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.350880953791915</c:v>
+                  <c:v>10.249567735145328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.814378041612056</c:v>
+                  <c:v>11.502837506690332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.969370807385207</c:v>
+                  <c:v>13.201734815825331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.795695454331312</c:v>
+                  <c:v>14.839229299645872</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.793881478020051</c:v>
+                  <c:v>16.139677353720501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.158870230207601</c:v>
+                  <c:v>17.620084073684747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.646163632916</c:v>
+                  <c:v>19.132033653334741</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.700156345921499</c:v>
+                  <c:v>20.155459933924622</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.5194749097694</c:v>
+                  <c:v>22.064340813880655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.456550355421889</c:v>
+                  <c:v>23.329852918771529</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.149132136753096</c:v>
+                  <c:v>24.696320125808164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45.521592485061063</c:v>
+                  <c:v>25.920072469458287</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47.947972264758462</c:v>
+                  <c:v>27.960827928696308</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52.356948823394639</c:v>
+                  <c:v>29.635494343304998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.172676980824953</c:v>
+                  <c:v>29.833424320634265</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.661239061406505</c:v>
+                  <c:v>31.742493011193734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56.142437251055036</c:v>
+                  <c:v>33.136758369104065</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>57.980831004030868</c:v>
+                  <c:v>34.848070926067088</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>61.660695316913426</c:v>
+                  <c:v>35.387451623653384</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.755270741737505</c:v>
+                  <c:v>37.739834242892115</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.181189926874694</c:v>
+                  <c:v>39.18776446491632</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70.506522000762928</c:v>
+                  <c:v>41.577190410718266</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69.593582667401023</c:v>
+                  <c:v>42.113785920872544</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74.462786148047115</c:v>
+                  <c:v>42.886226078943658</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74.808169498000666</c:v>
+                  <c:v>45.929584276540069</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>79.711926326717489</c:v>
+                  <c:v>47.003498731727539</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81.301970031209549</c:v>
+                  <c:v>48.069997517410314</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>82.208717431121954</c:v>
+                  <c:v>49.369447424746589</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.326771813428664</c:v>
+                  <c:v>51.133497576776598</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>87.907926404053583</c:v>
+                  <c:v>51.889183260153473</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>88.559255350884683</c:v>
+                  <c:v>53.708019431285564</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>91.482269142517154</c:v>
+                  <c:v>53.906390327075563</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>95.045673235106094</c:v>
+                  <c:v>56.805943548383588</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>98.799383552224256</c:v>
+                  <c:v>58.437909242361513</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>98.188947648440731</c:v>
+                  <c:v>58.949151650249362</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>103.23092874855779</c:v>
+                  <c:v>61.03107825206866</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>105.30609199804906</c:v>
+                  <c:v>62.567743334695898</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>104.69510640684207</c:v>
+                  <c:v>63.526592729198278</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>108.10932353542138</c:v>
+                  <c:v>65.14724420447844</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>112.84175708725209</c:v>
+                  <c:v>66.714778936078062</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>109.16684100243397</c:v>
+                  <c:v>68.616658084637749</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>118.43941892982663</c:v>
+                  <c:v>71.433155765656053</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>117.69013175459432</c:v>
+                  <c:v>71.411298241003379</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>122.46508290066082</c:v>
+                  <c:v>73.584552001545873</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>123.82431648658438</c:v>
+                  <c:v>74.57628993217223</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>125.54385618591304</c:v>
+                  <c:v>77.206614669479237</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>124.43246729457037</c:v>
+                  <c:v>75.981557684787617</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>129.50620290676395</c:v>
+                  <c:v>79.378531265249578</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>128.55929256322585</c:v>
+                  <c:v>78.770985993197144</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>135.33055004433817</c:v>
+                  <c:v>83.056319937625389</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>136.90721199439878</c:v>
+                  <c:v>83.163023602655912</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>135.94833761527582</c:v>
+                  <c:v>85.030084917239861</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>141.37748517610231</c:v>
+                  <c:v>85.357916250419038</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>145.58737784864792</c:v>
+                  <c:v>86.721829910353591</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>152.37228105052588</c:v>
+                  <c:v>88.076623356255524</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>151.59082417303037</c:v>
+                  <c:v>87.663521292849325</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>153.14279572848488</c:v>
+                  <c:v>94.822923136315808</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>147.70789290454945</c:v>
+                  <c:v>94.460750405202518</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>161.48345138379102</c:v>
+                  <c:v>92.825635243083951</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>160.8371463224839</c:v>
+                  <c:v>95.702711093749798</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>164.15219192378589</c:v>
+                  <c:v>98.284596134133551</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>155.48361654558923</c:v>
+                  <c:v>98.046083170635129</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>166.97491766827599</c:v>
+                  <c:v>102.10777209950507</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>167.99573702033817</c:v>
+                  <c:v>101.55327675424228</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>168.49415853866751</c:v>
+                  <c:v>102.40669439598679</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>164.15058918129813</c:v>
+                  <c:v>104.99324460553994</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>173.63590940509877</c:v>
+                  <c:v>108.28809582773246</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>171.07375478476007</c:v>
+                  <c:v>107.65900265037553</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>179.44673580290109</c:v>
+                  <c:v>109.57249143906864</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>178.36719617672975</c:v>
+                  <c:v>110.09152293339021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>182.8655073397268</c:v>
+                  <c:v>111.33980942625725</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>185.02948516888057</c:v>
+                  <c:v>111.62691819659838</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>188.28925775317751</c:v>
+                  <c:v>112.94846581193124</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>191.04902032473549</c:v>
+                  <c:v>116.19854344839766</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>195.3827366333702</c:v>
+                  <c:v>117.20306153630908</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>189.05878080482555</c:v>
+                  <c:v>120.80756274848774</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>198.23917264565461</c:v>
+                  <c:v>120.23014880861315</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>201.55992123364479</c:v>
+                  <c:v>120.93923468758817</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>199.02747704347641</c:v>
+                  <c:v>122.21485399849115</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>210.80186807931096</c:v>
+                  <c:v>127.11259754397977</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>207.25990335569341</c:v>
+                  <c:v>123.78066766139055</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>213.35593829928493</c:v>
+                  <c:v>127.15014417791377</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>219.41479829837951</c:v>
+                  <c:v>126.54647562328473</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>216.7671403054307</c:v>
+                  <c:v>130.22613624328395</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>219.15662682105133</c:v>
+                  <c:v>133.57543334598301</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>219.76326120920865</c:v>
+                  <c:v>130.48234977330779</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>222.70377556314756</c:v>
+                  <c:v>133.0516972575561</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>215.70117750732192</c:v>
+                  <c:v>136.93498725041312</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>220.4122392841507</c:v>
+                  <c:v>138.38480276831351</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>229.27325161168523</c:v>
+                  <c:v>136.19701219793501</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>240.69376763970016</c:v>
+                  <c:v>143.31064843350686</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>235.64436281940814</c:v>
+                  <c:v>143.0084654474401</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>141.91846519435902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +876,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-599E-4DCD-A270-3A938BCE4E27}"/>
+              <c16:uniqueId val="{00000001-B859-41C4-9FD9-C733F24381AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -856,15 +933,50 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Величина искуственной погрешности</a:t>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>R,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92440424532209509"/>
+              <c:y val="0.87986930591124268"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,7 +1021,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -959,7 +1071,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -977,8 +1089,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>значение ошибки</a:t>
+                  <a:t>СКО,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="600" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -986,20 +1107,22 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8151815181518153E-2"/>
-              <c:y val="0.40062955473543821"/>
+              <c:x val="6.3542357678610883E-2"/>
+              <c:y val="5.9223275321464611E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1068,8 +1191,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57242249421792568"/>
-          <c:y val="0.19043365643883595"/>
+          <c:x val="0.66968798309672828"/>
+          <c:y val="3.4761186379812792E-2"/>
           <c:w val="0.1109305891219043"/>
           <c:h val="0.12382831680663903"/>
         </c:manualLayout>
@@ -1163,17 +1286,82 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Молния</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41303240921275791"/>
+          <c:y val="4.0359540400626323E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0056391465918239E-2"/>
+          <c:x val="4.7634589926786618E-2"/>
           <c:y val="2.2036009731502375E-2"/>
-          <c:w val="0.89542215638886724"/>
-          <c:h val="0.85712925968049603"/>
+          <c:w val="0.9278440248637293"/>
+          <c:h val="0.91010601391302237"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1182,6 +1370,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СГ 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -1196,309 +1395,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$W$8:$W$107</c:f>
+              <c:f>Лист1!$B$8:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.13621559198564537</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.050278547731379</c:v>
+                  <c:v>0.72267240085992801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1532235939337223</c:v>
+                  <c:v>1.4608649700318745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.197067744080917</c:v>
+                  <c:v>2.1993980172205063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.423528784827894</c:v>
+                  <c:v>2.8940543701855934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.66725066099087</c:v>
+                  <c:v>3.6351039616237775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.075678017381623</c:v>
+                  <c:v>4.3298799487720032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.857274854597716</c:v>
+                  <c:v>5.0656502799475644</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.045460162848727</c:v>
+                  <c:v>5.7928275163494201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.914541627659737</c:v>
+                  <c:v>6.5136949209766959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.748652216432312</c:v>
+                  <c:v>7.4407272814486296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.208285153989159</c:v>
+                  <c:v>8.0786018317585278</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.211171796579762</c:v>
+                  <c:v>8.6081676808753826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.228992194875694</c:v>
+                  <c:v>9.5954960373501716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56.788485481314957</c:v>
+                  <c:v>10.257225191201204</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.50173147739261</c:v>
+                  <c:v>11.17435691177705</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61.925034678317814</c:v>
+                  <c:v>11.823860399741671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.284706754362688</c:v>
+                  <c:v>12.324515780568909</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.627538517840293</c:v>
+                  <c:v>13.332182172635898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.420043660602985</c:v>
+                  <c:v>13.876839473038496</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82.953976488582541</c:v>
+                  <c:v>14.76992314823336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>86.330707729872501</c:v>
+                  <c:v>15.667943908661256</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87.126593852251261</c:v>
+                  <c:v>16.237203161975241</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>92.458066125597256</c:v>
+                  <c:v>16.706518657898901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.376888608928027</c:v>
+                  <c:v>17.405546860136578</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>99.07273449364753</c:v>
+                  <c:v>18.378261581737643</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>103.45726985977703</c:v>
+                  <c:v>18.661181148456919</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>109.73570536257843</c:v>
+                  <c:v>19.292497168213455</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>113.22742237635039</c:v>
+                  <c:v>20.505577951596663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>111.89225197689693</c:v>
+                  <c:v>21.638058157609791</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>121.41767466495341</c:v>
+                  <c:v>22.235076118068896</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>122.47602025702811</c:v>
+                  <c:v>22.692105579748961</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>124.19140737890626</c:v>
+                  <c:v>22.918836586882026</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>136.61978349438377</c:v>
+                  <c:v>23.9784367231319</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>136.26678574297486</c:v>
+                  <c:v>25.244736451726499</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>143.28614372054412</c:v>
+                  <c:v>25.532096255234322</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>143.25053772003872</c:v>
+                  <c:v>25.727383463606792</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>147.87495809300697</c:v>
+                  <c:v>26.614348117898665</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>160.46642072961365</c:v>
+                  <c:v>27.393300069601974</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>156.60503377604886</c:v>
+                  <c:v>28.71472028743564</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>157.67397397050098</c:v>
+                  <c:v>29.142665429098653</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>169.14440498649921</c:v>
+                  <c:v>29.997042133737583</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>166.9727274172144</c:v>
+                  <c:v>30.239811872915734</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>177.49609434571025</c:v>
+                  <c:v>31.283439514042009</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>182.18185416634012</c:v>
+                  <c:v>31.626421162056005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>182.89769766686013</c:v>
+                  <c:v>32.988466822839634</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>187.42623752987546</c:v>
+                  <c:v>33.302072231702503</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>178.50397740607829</c:v>
+                  <c:v>34.419816999231905</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>187.81254187438654</c:v>
+                  <c:v>35.933882537545713</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>194.09668629810383</c:v>
+                  <c:v>35.285294274278286</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>201.00616052881651</c:v>
+                  <c:v>35.50421063194139</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>203.05550451214282</c:v>
+                  <c:v>37.403974793027857</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>208.18117672068419</c:v>
+                  <c:v>37.98275440659247</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>209.89166956243741</c:v>
+                  <c:v>37.69273629153119</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>225.77464238060196</c:v>
+                  <c:v>38.82415044984657</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>213.84089184428311</c:v>
+                  <c:v>40.981786513667103</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>232.0038981528028</c:v>
+                  <c:v>40.825839186042664</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>231.88896092902189</c:v>
+                  <c:v>40.362434041269815</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>229.84016330063764</c:v>
+                  <c:v>41.731844627876683</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>241.87623517959</c:v>
+                  <c:v>43.32749254569466</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>243.88254262342488</c:v>
+                  <c:v>44.957860441274882</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>241.19819779515194</c:v>
+                  <c:v>44.962450500982953</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>237.83290672201372</c:v>
+                  <c:v>45.441448243817945</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>245.08664224133673</c:v>
+                  <c:v>45.247164747760671</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>259.81899734472836</c:v>
+                  <c:v>46.131494628526987</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>263.00632301483597</c:v>
+                  <c:v>46.886271862048019</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>277.17801908493516</c:v>
+                  <c:v>49.424443179414126</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>269.53028825607657</c:v>
+                  <c:v>49.419908586368017</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>274.29493948964853</c:v>
+                  <c:v>48.731315744624141</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>279.09632008824161</c:v>
+                  <c:v>48.907938579731962</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>277.16343189689655</c:v>
+                  <c:v>51.366883067880927</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>281.55480435735899</c:v>
+                  <c:v>52.385787527813164</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>281.01715008425288</c:v>
+                  <c:v>50.86277798121791</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>292.72379248165271</c:v>
+                  <c:v>52.098243909799827</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>299.74457859849122</c:v>
+                  <c:v>54.136482089909173</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>295.22701336399047</c:v>
+                  <c:v>54.206347526076485</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>313.28375963963236</c:v>
+                  <c:v>55.32722777402121</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>309.83149562260598</c:v>
+                  <c:v>55.336289398049004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>303.28590418308994</c:v>
+                  <c:v>56.227613843191754</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>313.13706925506244</c:v>
+                  <c:v>58.077981686663051</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>316.08599957990435</c:v>
+                  <c:v>58.959632412560957</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>333.17996647629366</c:v>
+                  <c:v>57.988391243533989</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>320.36782101217642</c:v>
+                  <c:v>58.884161225774477</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>327.41526431348268</c:v>
+                  <c:v>60.293591561913736</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>331.20189510235406</c:v>
+                  <c:v>60.248016036932697</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>346.58159120329356</c:v>
+                  <c:v>63.719010880588968</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>339.82546169751458</c:v>
+                  <c:v>62.262086779292126</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>345.80204186679373</c:v>
+                  <c:v>64.040190850224093</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>353.77781598883973</c:v>
+                  <c:v>62.801370651812285</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>350.38085274409798</c:v>
+                  <c:v>64.295083408293465</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>383.88411445269719</c:v>
+                  <c:v>64.816522720524915</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>360.07788536861159</c:v>
+                  <c:v>65.504986374784195</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>367.42015789803656</c:v>
+                  <c:v>66.85413076330407</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>369.92999463631008</c:v>
+                  <c:v>66.50373321073296</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>382.01788870173755</c:v>
+                  <c:v>68.371135880277507</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>384.81491664988425</c:v>
+                  <c:v>70.228875058653699</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>376.79756978278186</c:v>
+                  <c:v>69.794126164057886</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>384.73487938511084</c:v>
+                  <c:v>72.005525061779807</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>394.71026058289522</c:v>
+                  <c:v>72.525742351069383</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>402.31605633099736</c:v>
+                  <c:v>73.528784623089763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,13 +1705,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5618-4A4E-93EA-B4C8F5F32B2D}"/>
+              <c16:uniqueId val="{00000000-20D2-4EE9-8B1C-6304B03F901E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СГ 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -1527,309 +1737,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$X$8:$X$107</c:f>
+              <c:f>Лист1!$C$8:$C$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>3.8273277230987328E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7504184767506137</c:v>
+                  <c:v>0.77676475505876041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7517989555275104</c:v>
+                  <c:v>1.5688992461841254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2068252992039028</c:v>
+                  <c:v>2.3526442506241558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.216917373546885</c:v>
+                  <c:v>3.1728376181516635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.46248676721936</c:v>
+                  <c:v>3.9057340809164667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.231624598143298</c:v>
+                  <c:v>4.693328815078341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.628824080368474</c:v>
+                  <c:v>5.6081702332474572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.876842588137109</c:v>
+                  <c:v>6.3238512250580516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.826101874632386</c:v>
+                  <c:v>7.1624934142358043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.187250224020957</c:v>
+                  <c:v>7.8292073002439997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.460128405455443</c:v>
+                  <c:v>8.6679028666828746</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.680574808692683</c:v>
+                  <c:v>9.496140710719196</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.882365313710878</c:v>
+                  <c:v>10.451516899054109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.198093209923847</c:v>
+                  <c:v>11.1572247199998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.239726912477614</c:v>
+                  <c:v>12.148697295574367</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.250978039990635</c:v>
+                  <c:v>12.888417665482635</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.446962487059622</c:v>
+                  <c:v>13.746011190694107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.232943537962974</c:v>
+                  <c:v>14.363662330120972</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.610528964925614</c:v>
+                  <c:v>15.239647436845374</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.830048903948637</c:v>
+                  <c:v>15.808107943815749</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65.682282296949651</c:v>
+                  <c:v>16.655899021986951</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>69.403237139057154</c:v>
+                  <c:v>16.877258018079161</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>72.681821601737667</c:v>
+                  <c:v>18.455382542194418</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>74.022590175208634</c:v>
+                  <c:v>19.171019969084611</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>78.653468280706193</c:v>
+                  <c:v>20.105477333753697</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>82.314909202075512</c:v>
+                  <c:v>20.459932166020547</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>84.763487342234001</c:v>
+                  <c:v>21.497895557658023</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89.484541365390058</c:v>
+                  <c:v>22.698981532049515</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>91.054345284446143</c:v>
+                  <c:v>23.486227326271873</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>91.49080074681379</c:v>
+                  <c:v>24.080206690649771</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100.47634301814884</c:v>
+                  <c:v>24.699683459908275</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100.36960855175684</c:v>
+                  <c:v>25.796750710664025</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>102.37889174785759</c:v>
+                  <c:v>26.484555500199615</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>107.12654236673221</c:v>
+                  <c:v>27.479596802275548</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>112.42529598070806</c:v>
+                  <c:v>27.921660264559396</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>110.41412058700874</c:v>
+                  <c:v>29.789453073620834</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>118.54588876855458</c:v>
+                  <c:v>29.175389403170687</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>119.75639957551708</c:v>
+                  <c:v>30.55914456095562</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>124.17741349903469</c:v>
+                  <c:v>31.880171593815483</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>126.12090937137526</c:v>
+                  <c:v>31.016397947676992</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>128.84194616613419</c:v>
+                  <c:v>32.330653226643236</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>131.74414868517388</c:v>
+                  <c:v>33.912727828314345</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>136.83740033397572</c:v>
+                  <c:v>35.261786892257007</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>137.77364042839548</c:v>
+                  <c:v>34.276168390195707</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>142.55329480358327</c:v>
+                  <c:v>35.764862863212144</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>146.76705906258084</c:v>
+                  <c:v>36.136447736293299</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>151.17939330018908</c:v>
+                  <c:v>38.248971270683803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>150.72478475080194</c:v>
+                  <c:v>37.230659455672971</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>154.3982187671312</c:v>
+                  <c:v>37.7536418878747</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>159.03230308705957</c:v>
+                  <c:v>38.796037752540187</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>157.41787651993465</c:v>
+                  <c:v>40.550229292540415</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>166.54093094835878</c:v>
+                  <c:v>41.145898421951713</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>168.80055721297333</c:v>
+                  <c:v>42.534211267425285</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>169.8374159991678</c:v>
+                  <c:v>43.302533375238276</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>175.19013009081817</c:v>
+                  <c:v>44.726073615465353</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>178.2657345008476</c:v>
+                  <c:v>43.459615319348977</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>180.01433895055825</c:v>
+                  <c:v>45.27504191238809</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>187.18158135017865</c:v>
+                  <c:v>45.738715179069217</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>185.61227941909138</c:v>
+                  <c:v>45.718235155703184</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>192.35931919883274</c:v>
+                  <c:v>47.494551499867214</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192.89998974952096</c:v>
+                  <c:v>48.175974498025909</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>198.13611527737308</c:v>
+                  <c:v>49.910196792702678</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>199.08524268525542</c:v>
+                  <c:v>50.388304023118728</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>202.15295262143462</c:v>
+                  <c:v>50.710393739804488</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>204.36062883725904</c:v>
+                  <c:v>52.016867340173157</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>210.1647536838515</c:v>
+                  <c:v>52.178520066076373</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>209.02629498835381</c:v>
+                  <c:v>53.433006694867984</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>211.89905373135545</c:v>
+                  <c:v>54.749771571446608</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>220.99742721367727</c:v>
+                  <c:v>55.743359344840684</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.43518972309855</c:v>
+                  <c:v>56.627176443082824</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>222.95069410228484</c:v>
+                  <c:v>58.181912494606642</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>227.83557894754549</c:v>
+                  <c:v>57.240392489885636</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>234.94708407530882</c:v>
+                  <c:v>59.03014134849608</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>227.22723891318853</c:v>
+                  <c:v>58.165809058169465</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>236.94569917670563</c:v>
+                  <c:v>60.731664285854691</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>239.29218631042104</c:v>
+                  <c:v>60.269940659533994</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>238.38936911532303</c:v>
+                  <c:v>60.68752682489778</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>245.94648384939842</c:v>
+                  <c:v>62.242613169944804</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>250.02137126143239</c:v>
+                  <c:v>62.831981730742342</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>254.65273306979509</c:v>
+                  <c:v>64.26527777977509</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>256.80340225380638</c:v>
+                  <c:v>64.142929699751548</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>262.76829807250482</c:v>
+                  <c:v>65.817676074792843</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>256.7194341891589</c:v>
+                  <c:v>64.725294683241941</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>264.77229791023473</c:v>
+                  <c:v>67.446316757907582</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>265.0363229994137</c:v>
+                  <c:v>66.437051912256536</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>271.63030772374435</c:v>
+                  <c:v>69.272273970220667</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>279.9826518782989</c:v>
+                  <c:v>68.754317101504412</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>274.28874494430744</c:v>
+                  <c:v>71.393226830545203</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>287.58588287501391</c:v>
+                  <c:v>70.962912001775521</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>285.56045790916113</c:v>
+                  <c:v>69.830429034886421</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>283.45995416424518</c:v>
+                  <c:v>69.984172143991628</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>288.53197182046353</c:v>
+                  <c:v>71.819837375890714</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>282.35521469864801</c:v>
+                  <c:v>72.518472181427526</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>295.68459489237574</c:v>
+                  <c:v>75.109729028771184</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>303.15073151023063</c:v>
+                  <c:v>73.261835094968717</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>301.73718419549698</c:v>
+                  <c:v>78.793227796543391</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>298.48937524781564</c:v>
+                  <c:v>77.764883654912651</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>309.10060429603357</c:v>
+                  <c:v>78.387732049713492</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>300.90775178515969</c:v>
+                  <c:v>80.336669924736299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,7 +2047,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5618-4A4E-93EA-B4C8F5F32B2D}"/>
+              <c16:uniqueId val="{00000001-20D2-4EE9-8B1C-6304B03F901E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1894,15 +2104,64 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Величина искуственной погрешности</a:t>
+                  <a:rPr lang="ru-RU" sz="600">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>с</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>*</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>T,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92440424532209509"/>
+              <c:y val="0.87986930591124268"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1947,7 +2206,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1997,7 +2256,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2015,8 +2274,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>значение ошибки</a:t>
+                  <a:t>СКО,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="600" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2024,20 +2292,22 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8151815181518153E-2"/>
-              <c:y val="0.40062955473543821"/>
+              <c:x val="6.3542357678610883E-2"/>
+              <c:y val="5.9223275321464611E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2106,10 +2376,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57242249421792568"/>
-          <c:y val="0.19043365643883595"/>
-          <c:w val="0.16831683168316833"/>
-          <c:h val="4.7219643145931564E-2"/>
+          <c:x val="0.66968798309672828"/>
+          <c:y val="3.4761186379812792E-2"/>
+          <c:w val="0.1109305891219043"/>
+          <c:h val="0.12382831680663903"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2201,17 +2471,82 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ГЛОНАСС</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43131833239875866"/>
+          <c:y val="3.4593891771965417E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0056391465918239E-2"/>
+          <c:x val="4.7634589926786618E-2"/>
           <c:y val="2.2036009731502375E-2"/>
-          <c:w val="0.89542215638886724"/>
-          <c:h val="0.85712925968049603"/>
+          <c:w val="0.9278440248637293"/>
+          <c:h val="0.91010601391302237"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2220,6 +2555,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>СГ 4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -2234,309 +2572,312 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$8:$E$107</c:f>
+              <c:f>Лист1!$N$7:$N$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7320508075688528</c:v>
+                  <c:v>3.8273277230987328E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0764006124939689</c:v>
+                  <c:v>1.5574692875244038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4225316534330643</c:v>
+                  <c:v>3.1770450963761956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9237385197416197</c:v>
+                  <c:v>4.6998991622361528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4439593611503492</c:v>
+                  <c:v>6.424526250166636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.800862504056747</c:v>
+                  <c:v>7.8747933733729463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.249567735145328</c:v>
+                  <c:v>9.5825710897831797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.502837506690332</c:v>
+                  <c:v>11.303847061140537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.201734815825331</c:v>
+                  <c:v>12.96988433865342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.839229299645872</c:v>
+                  <c:v>14.475161432160951</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.139677353720501</c:v>
+                  <c:v>15.938567217160331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.620084073684747</c:v>
+                  <c:v>17.2578079856772</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.132033653334741</c:v>
+                  <c:v>18.467241159245592</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.155459933924622</c:v>
+                  <c:v>20.745866098091568</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.064340813880655</c:v>
+                  <c:v>22.385655553804163</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.329852918771529</c:v>
+                  <c:v>23.573361666924736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.696320125808164</c:v>
+                  <c:v>25.561431186432412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.920072469458287</c:v>
+                  <c:v>27.158663366523609</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.960827928696308</c:v>
+                  <c:v>29.301672377850778</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.635494343304998</c:v>
+                  <c:v>29.859003295771885</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.833424320634265</c:v>
+                  <c:v>30.902184121550764</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.742493011193734</c:v>
+                  <c:v>33.479127952338374</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33.136758369104065</c:v>
+                  <c:v>34.684243322840729</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34.848070926067088</c:v>
+                  <c:v>36.135699149448286</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.387451623653384</c:v>
+                  <c:v>37.763970816965688</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.739834242892115</c:v>
+                  <c:v>39.583753876278124</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.18776446491632</c:v>
+                  <c:v>42.82026228540299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.577190410718266</c:v>
+                  <c:v>42.665639819688536</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.113785920872544</c:v>
+                  <c:v>44.816152426728877</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.886226078943658</c:v>
+                  <c:v>45.572536647688771</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45.929584276540069</c:v>
+                  <c:v>48.145684335773524</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.003498731727539</c:v>
+                  <c:v>49.647770324293241</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>48.069997517410314</c:v>
+                  <c:v>52.153603559239805</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.369447424746589</c:v>
+                  <c:v>53.040338864929076</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.133497576776598</c:v>
+                  <c:v>53.850360995875548</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.889183260153473</c:v>
+                  <c:v>55.699682219827288</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53.708019431285564</c:v>
+                  <c:v>57.87903785028454</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.906390327075563</c:v>
+                  <c:v>58.449057880959657</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>56.805943548383588</c:v>
+                  <c:v>59.479308935285331</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>58.437909242361513</c:v>
+                  <c:v>64.029764379583327</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58.949151650249362</c:v>
+                  <c:v>62.407168079096557</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61.03107825206866</c:v>
+                  <c:v>64.40071637753006</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.567743334695898</c:v>
+                  <c:v>65.424664999422944</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63.526592729198278</c:v>
+                  <c:v>68.933687846631926</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>65.14724420447844</c:v>
+                  <c:v>67.495668886560097</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66.714778936078062</c:v>
+                  <c:v>72.50429310978258</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>68.616658084637749</c:v>
+                  <c:v>74.425136836791978</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>71.433155765656053</c:v>
+                  <c:v>74.313618471112179</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>71.411298241003379</c:v>
+                  <c:v>73.778084642128036</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>73.584552001545873</c:v>
+                  <c:v>79.762653806133272</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>74.57628993217223</c:v>
+                  <c:v>79.801683921122901</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>77.206614669479237</c:v>
+                  <c:v>80.402920405879399</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>75.981557684787617</c:v>
+                  <c:v>82.586994423393747</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79.378531265249578</c:v>
+                  <c:v>84.944958008735995</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>78.770985993197144</c:v>
+                  <c:v>85.774051500886571</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>83.056319937625389</c:v>
+                  <c:v>85.73373674292246</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>83.163023602655912</c:v>
+                  <c:v>88.403510431560051</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>85.030084917239861</c:v>
+                  <c:v>89.062184792874973</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>85.357916250419038</c:v>
+                  <c:v>91.245206873769078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>86.721829910353591</c:v>
+                  <c:v>93.625381729199617</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>88.076623356255524</c:v>
+                  <c:v>94.75773373448942</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>87.663521292849325</c:v>
+                  <c:v>95.671993057446826</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>94.822923136315808</c:v>
+                  <c:v>98.559610409036623</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94.460750405202518</c:v>
+                  <c:v>97.819150148154222</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>92.825635243083951</c:v>
+                  <c:v>102.78471737328017</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>95.702711093749798</c:v>
+                  <c:v>102.36640104362945</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>98.284596134133551</c:v>
+                  <c:v>104.28146759855986</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>98.046083170635129</c:v>
+                  <c:v>104.66869910335035</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>102.10777209950507</c:v>
+                  <c:v>106.00795078465289</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>101.55327675424228</c:v>
+                  <c:v>108.95810367195011</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>102.40669439598679</c:v>
+                  <c:v>112.26610042560888</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>104.99324460553994</c:v>
+                  <c:v>110.69038854818898</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>108.28809582773246</c:v>
+                  <c:v>114.26682315705986</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>107.65900265037553</c:v>
+                  <c:v>113.68891336064195</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>109.57249143906864</c:v>
+                  <c:v>118.14980822932542</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>110.09152293339021</c:v>
+                  <c:v>117.15237604303873</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>111.33980942625725</c:v>
+                  <c:v>122.22013691797642</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>111.62691819659838</c:v>
+                  <c:v>123.27033173022804</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>112.94846581193124</c:v>
+                  <c:v>122.97750321432153</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>116.19854344839766</c:v>
+                  <c:v>125.88820327018396</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>117.20306153630908</c:v>
+                  <c:v>128.93150268237048</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>120.80756274848774</c:v>
+                  <c:v>129.7815405351482</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>120.23014880861315</c:v>
+                  <c:v>129.44901667382965</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120.93923468758817</c:v>
+                  <c:v>128.55554233083876</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>122.21485399849115</c:v>
+                  <c:v>130.04997334373596</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>127.11259754397977</c:v>
+                  <c:v>138.3258459353342</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>123.78066766139055</c:v>
+                  <c:v>133.03290281832682</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>127.15014417791377</c:v>
+                  <c:v>140.88535816205848</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>126.54647562328473</c:v>
+                  <c:v>142.33427158980848</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>130.22613624328395</c:v>
+                  <c:v>140.09398750686253</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>133.57543334598301</c:v>
+                  <c:v>143.09575355102984</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>130.48234977330779</c:v>
+                  <c:v>140.96144433084305</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>133.0516972575561</c:v>
+                  <c:v>146.28052317332049</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>136.93498725041312</c:v>
+                  <c:v>148.18988875823339</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>138.38480276831351</c:v>
+                  <c:v>153.7385151778513</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>136.19701219793501</c:v>
+                  <c:v>152.12691208200218</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>143.31064843350686</c:v>
+                  <c:v>152.74385549790358</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>143.0084654474401</c:v>
+                  <c:v>156.09725161750336</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>141.91846519435902</c:v>
+                  <c:v>154.70122479496086</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>158.4603114085256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,13 +2885,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B859-41C4-9FD9-C733F24381AA}"/>
+              <c16:uniqueId val="{00000000-2CD6-4F48-9638-7EABACD62FA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>СГ 3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -2565,309 +2909,312 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$8:$F$107</c:f>
+              <c:f>Лист1!$O$7:$O$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.36412603660733</c:v>
+                  <c:v>0.13621559198564537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6467561615588266</c:v>
+                  <c:v>2.3885723895567086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1160783981531353</c:v>
+                  <c:v>4.6015099476126267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4667142185095221</c:v>
+                  <c:v>7.1028353062539686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8913150668651264</c:v>
+                  <c:v>9.2794876940080613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2453623775716309</c:v>
+                  <c:v>11.710743292007164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5121320763744919</c:v>
+                  <c:v>13.678820225146676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.855468969033973</c:v>
+                  <c:v>16.05321869811721</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.283008606461314</c:v>
+                  <c:v>18.350880953791915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.868239064388014</c:v>
+                  <c:v>21.814378041612056</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.066031870803993</c:v>
+                  <c:v>23.969370807385207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.862215632939741</c:v>
+                  <c:v>25.795695454331312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.783641078823329</c:v>
+                  <c:v>27.793881478020051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.555324481227395</c:v>
+                  <c:v>30.158870230207601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.8486725574083</c:v>
+                  <c:v>33.646163632916</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.891515536601993</c:v>
+                  <c:v>35.700156345921499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.368325079422579</c:v>
+                  <c:v>37.5194749097694</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.400495189496773</c:v>
+                  <c:v>39.456550355421889</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.035882202478046</c:v>
+                  <c:v>41.149132136753096</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.352593212695524</c:v>
+                  <c:v>45.521592485061063</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.416989949366663</c:v>
+                  <c:v>47.947972264758462</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.544103878003149</c:v>
+                  <c:v>52.356948823394639</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.626179368852537</c:v>
+                  <c:v>52.172676980824953</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.122207861180158</c:v>
+                  <c:v>55.661239061406505</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33.655021377831773</c:v>
+                  <c:v>56.142437251055036</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.750029124716683</c:v>
+                  <c:v>57.980831004030868</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.577918639756405</c:v>
+                  <c:v>61.660695316913426</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37.96410280727693</c:v>
+                  <c:v>65.755270741737505</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.599682734822252</c:v>
+                  <c:v>65.181189926874694</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.982201653731721</c:v>
+                  <c:v>70.506522000762928</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.277616687307415</c:v>
+                  <c:v>69.593582667401023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.570470113912222</c:v>
+                  <c:v>74.462786148047115</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45.75839047937847</c:v>
+                  <c:v>74.808169498000666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>47.514768818286946</c:v>
+                  <c:v>79.711926326717489</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>47.684684815322449</c:v>
+                  <c:v>81.301970031209549</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48.145313566455513</c:v>
+                  <c:v>82.208717431121954</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>49.036004353032617</c:v>
+                  <c:v>88.326771813428664</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.881826324282265</c:v>
+                  <c:v>87.907926404053583</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.084454333758877</c:v>
+                  <c:v>88.559255350884683</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>52.400357315396178</c:v>
+                  <c:v>91.482269142517154</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>55.165058814123171</c:v>
+                  <c:v>95.045673235106094</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>55.716296448265538</c:v>
+                  <c:v>98.799383552224256</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57.951819651462877</c:v>
+                  <c:v>98.188947648440731</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>61.029689041275915</c:v>
+                  <c:v>103.23092874855779</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60.735473272840686</c:v>
+                  <c:v>105.30609199804906</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61.736071006273484</c:v>
+                  <c:v>104.69510640684207</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>63.292074140691348</c:v>
+                  <c:v>108.10932353542138</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>67.469815843976264</c:v>
+                  <c:v>112.84175708725209</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65.771317179979008</c:v>
+                  <c:v>109.16684100243397</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>68.286713645831554</c:v>
+                  <c:v>118.43941892982663</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>69.067394399224028</c:v>
+                  <c:v>117.69013175459432</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>70.901926678025703</c:v>
+                  <c:v>122.46508290066082</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>71.649062249825931</c:v>
+                  <c:v>123.82431648658438</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>72.786914301137401</c:v>
+                  <c:v>125.54385618591304</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>75.854173993613998</c:v>
+                  <c:v>124.43246729457037</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>75.290126914213161</c:v>
+                  <c:v>129.50620290676395</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>75.157287213460108</c:v>
+                  <c:v>128.55929256322585</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>77.423800040818605</c:v>
+                  <c:v>135.33055004433817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>79.439506429591361</c:v>
+                  <c:v>136.90721199439878</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>83.291258743943189</c:v>
+                  <c:v>135.94833761527582</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>82.62098789574847</c:v>
+                  <c:v>141.37748517610231</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>83.371783705927953</c:v>
+                  <c:v>145.58737784864792</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>85.76316811466846</c:v>
+                  <c:v>152.37228105052588</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>86.409922519828953</c:v>
+                  <c:v>151.59082417303037</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>86.84064662764122</c:v>
+                  <c:v>153.14279572848488</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>90.773731951231525</c:v>
+                  <c:v>147.70789290454945</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>93.155670900584028</c:v>
+                  <c:v>161.48345138379102</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>92.580292480135896</c:v>
+                  <c:v>160.8371463224839</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>94.658817078859855</c:v>
+                  <c:v>164.15219192378589</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>97.008534457095223</c:v>
+                  <c:v>155.48361654558923</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>94.952368196371552</c:v>
+                  <c:v>166.97491766827599</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>100.89219901111288</c:v>
+                  <c:v>167.99573702033817</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>96.756098167858198</c:v>
+                  <c:v>168.49415853866751</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>104.15436135116057</c:v>
+                  <c:v>164.15058918129813</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>103.74726347333477</c:v>
+                  <c:v>173.63590940509877</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>102.62932042278489</c:v>
+                  <c:v>171.07375478476007</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>102.19100588148991</c:v>
+                  <c:v>179.44673580290109</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>106.16943415860592</c:v>
+                  <c:v>178.36719617672975</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>109.32101185631271</c:v>
+                  <c:v>182.8655073397268</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>109.4674059703724</c:v>
+                  <c:v>185.02948516888057</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108.36429167037737</c:v>
+                  <c:v>188.28925775317751</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>109.05207668509037</c:v>
+                  <c:v>191.04902032473549</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>114.0078562604823</c:v>
+                  <c:v>195.3827366333702</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>115.05223391147997</c:v>
+                  <c:v>189.05878080482555</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>113.57173866521066</c:v>
+                  <c:v>198.23917264565461</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>116.14366495302907</c:v>
+                  <c:v>201.55992123364479</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>118.02218565545149</c:v>
+                  <c:v>199.02747704347641</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>112.30275186875379</c:v>
+                  <c:v>210.80186807931096</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>124.0994919746514</c:v>
+                  <c:v>207.25990335569341</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>119.1490214066644</c:v>
+                  <c:v>213.35593829928493</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>125.06547748137638</c:v>
+                  <c:v>219.41479829837951</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>130.00469980719535</c:v>
+                  <c:v>216.7671403054307</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>126.66947798072077</c:v>
+                  <c:v>219.15662682105133</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>128.11797669649124</c:v>
+                  <c:v>219.76326120920865</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>125.65956080017786</c:v>
+                  <c:v>222.70377556314756</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>133.52626141772006</c:v>
+                  <c:v>215.70117750732192</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>131.06673517472126</c:v>
+                  <c:v>220.4122392841507</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>136.84967254741306</c:v>
+                  <c:v>229.27325161168523</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>130.59495196904169</c:v>
+                  <c:v>240.69376763970016</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>235.64436281940814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2875,7 +3222,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B859-41C4-9FD9-C733F24381AA}"/>
+              <c16:uniqueId val="{00000001-2CD6-4F48-9638-7EABACD62FA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2932,15 +3279,56 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Величина искуственной погрешности</a:t>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>с*</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>T,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>нс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92440424532209509"/>
+              <c:y val="0.87986930591124268"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2985,7 +3373,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3035,7 +3423,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3053,8 +3441,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>значение ошибки</a:t>
+                  <a:t>СКО,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="600" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3062,20 +3459,22 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8151815181518153E-2"/>
-              <c:y val="0.40062955473543821"/>
+              <c:x val="6.3542357678610883E-2"/>
+              <c:y val="5.9223275321464611E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3144,8 +3543,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57242249421792568"/>
-          <c:y val="0.19043365643883595"/>
+          <c:x val="0.66968798309672828"/>
+          <c:y val="3.4761186379812792E-2"/>
           <c:w val="0.1109305891219043"/>
           <c:h val="0.12382831680663903"/>
         </c:manualLayout>
@@ -3239,17 +3638,82 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ГЛОНАСС</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43131833239875866"/>
+          <c:y val="4.6125189029287222E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0056391465918239E-2"/>
+          <c:x val="4.7634589926786618E-2"/>
           <c:y val="2.2036009731502375E-2"/>
-          <c:w val="0.89542215638886724"/>
-          <c:h val="0.85712925968049603"/>
+          <c:w val="0.9278440248637293"/>
+          <c:h val="0.91010601391302237"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3258,6 +3722,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$X$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СГ 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -3272,309 +3747,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$8:$B$107</c:f>
+              <c:f>Лист1!$X$8:$X$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.8273277230987328E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72267240085992801</c:v>
+                  <c:v>1.7504184767506137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4608649700318745</c:v>
+                  <c:v>5.7517989555275104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1993980172205063</c:v>
+                  <c:v>9.2068252992039028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8940543701855934</c:v>
+                  <c:v>12.216917373546885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6351039616237775</c:v>
+                  <c:v>15.46248676721936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3298799487720032</c:v>
+                  <c:v>18.231624598143298</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0656502799475644</c:v>
+                  <c:v>21.628824080368474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7928275163494201</c:v>
+                  <c:v>24.876842588137109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5136949209766959</c:v>
+                  <c:v>27.826101874632386</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4407272814486296</c:v>
+                  <c:v>31.187250224020957</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0786018317585278</c:v>
+                  <c:v>35.460128405455443</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.6081676808753826</c:v>
+                  <c:v>37.680574808692683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5954960373501716</c:v>
+                  <c:v>41.882365313710878</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.257225191201204</c:v>
+                  <c:v>44.198093209923847</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.17435691177705</c:v>
+                  <c:v>48.239726912477614</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.823860399741671</c:v>
+                  <c:v>49.250978039990635</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.324515780568909</c:v>
+                  <c:v>53.446962487059622</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.332182172635898</c:v>
+                  <c:v>56.232943537962974</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.876839473038496</c:v>
+                  <c:v>61.610528964925614</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.76992314823336</c:v>
+                  <c:v>64.830048903948637</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.667943908661256</c:v>
+                  <c:v>65.682282296949651</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.237203161975241</c:v>
+                  <c:v>69.403237139057154</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.706518657898901</c:v>
+                  <c:v>72.681821601737667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.405546860136578</c:v>
+                  <c:v>74.022590175208634</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.378261581737643</c:v>
+                  <c:v>78.653468280706193</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.661181148456919</c:v>
+                  <c:v>82.314909202075512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.292497168213455</c:v>
+                  <c:v>84.763487342234001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.505577951596663</c:v>
+                  <c:v>89.484541365390058</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.638058157609791</c:v>
+                  <c:v>91.054345284446143</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.235076118068896</c:v>
+                  <c:v>91.49080074681379</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.692105579748961</c:v>
+                  <c:v>100.47634301814884</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22.918836586882026</c:v>
+                  <c:v>100.36960855175684</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.9784367231319</c:v>
+                  <c:v>102.37889174785759</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25.244736451726499</c:v>
+                  <c:v>107.12654236673221</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.532096255234322</c:v>
+                  <c:v>112.42529598070806</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25.727383463606792</c:v>
+                  <c:v>110.41412058700874</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.614348117898665</c:v>
+                  <c:v>118.54588876855458</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27.393300069601974</c:v>
+                  <c:v>119.75639957551708</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28.71472028743564</c:v>
+                  <c:v>124.17741349903469</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29.142665429098653</c:v>
+                  <c:v>126.12090937137526</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29.997042133737583</c:v>
+                  <c:v>128.84194616613419</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.239811872915734</c:v>
+                  <c:v>131.74414868517388</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>31.283439514042009</c:v>
+                  <c:v>136.83740033397572</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>31.626421162056005</c:v>
+                  <c:v>137.77364042839548</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.988466822839634</c:v>
+                  <c:v>142.55329480358327</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33.302072231702503</c:v>
+                  <c:v>146.76705906258084</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.419816999231905</c:v>
+                  <c:v>151.17939330018908</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.933882537545713</c:v>
+                  <c:v>150.72478475080194</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.285294274278286</c:v>
+                  <c:v>154.3982187671312</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.50421063194139</c:v>
+                  <c:v>159.03230308705957</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>37.403974793027857</c:v>
+                  <c:v>157.41787651993465</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>37.98275440659247</c:v>
+                  <c:v>166.54093094835878</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>37.69273629153119</c:v>
+                  <c:v>168.80055721297333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>38.82415044984657</c:v>
+                  <c:v>169.8374159991678</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>40.981786513667103</c:v>
+                  <c:v>175.19013009081817</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>40.825839186042664</c:v>
+                  <c:v>178.2657345008476</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>40.362434041269815</c:v>
+                  <c:v>180.01433895055825</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41.731844627876683</c:v>
+                  <c:v>187.18158135017865</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43.32749254569466</c:v>
+                  <c:v>185.61227941909138</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>44.957860441274882</c:v>
+                  <c:v>192.35931919883274</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44.962450500982953</c:v>
+                  <c:v>192.89998974952096</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>45.441448243817945</c:v>
+                  <c:v>198.13611527737308</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>45.247164747760671</c:v>
+                  <c:v>199.08524268525542</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>46.131494628526987</c:v>
+                  <c:v>202.15295262143462</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>46.886271862048019</c:v>
+                  <c:v>204.36062883725904</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>49.424443179414126</c:v>
+                  <c:v>210.1647536838515</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49.419908586368017</c:v>
+                  <c:v>209.02629498835381</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>48.731315744624141</c:v>
+                  <c:v>211.89905373135545</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>48.907938579731962</c:v>
+                  <c:v>220.99742721367727</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51.366883067880927</c:v>
+                  <c:v>222.43518972309855</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>52.385787527813164</c:v>
+                  <c:v>222.95069410228484</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>50.86277798121791</c:v>
+                  <c:v>227.83557894754549</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>52.098243909799827</c:v>
+                  <c:v>234.94708407530882</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>54.136482089909173</c:v>
+                  <c:v>227.22723891318853</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>54.206347526076485</c:v>
+                  <c:v>236.94569917670563</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>55.32722777402121</c:v>
+                  <c:v>239.29218631042104</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>55.336289398049004</c:v>
+                  <c:v>238.38936911532303</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>56.227613843191754</c:v>
+                  <c:v>245.94648384939842</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>58.077981686663051</c:v>
+                  <c:v>250.02137126143239</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>58.959632412560957</c:v>
+                  <c:v>254.65273306979509</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>57.988391243533989</c:v>
+                  <c:v>256.80340225380638</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>58.884161225774477</c:v>
+                  <c:v>262.76829807250482</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>60.293591561913736</c:v>
+                  <c:v>256.7194341891589</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.248016036932697</c:v>
+                  <c:v>264.77229791023473</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>63.719010880588968</c:v>
+                  <c:v>265.0363229994137</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>62.262086779292126</c:v>
+                  <c:v>271.63030772374435</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>64.040190850224093</c:v>
+                  <c:v>279.9826518782989</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>62.801370651812285</c:v>
+                  <c:v>274.28874494430744</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64.295083408293465</c:v>
+                  <c:v>287.58588287501391</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>64.816522720524915</c:v>
+                  <c:v>285.56045790916113</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>65.504986374784195</c:v>
+                  <c:v>283.45995416424518</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>66.85413076330407</c:v>
+                  <c:v>288.53197182046353</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>66.50373321073296</c:v>
+                  <c:v>282.35521469864801</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>68.371135880277507</c:v>
+                  <c:v>295.68459489237574</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>70.228875058653699</c:v>
+                  <c:v>303.15073151023063</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>69.794126164057886</c:v>
+                  <c:v>301.73718419549698</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>72.005525061779807</c:v>
+                  <c:v>298.48937524781564</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>72.525742351069383</c:v>
+                  <c:v>309.10060429603357</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>73.528784623089763</c:v>
+                  <c:v>300.90775178515969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3582,13 +4057,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C1BB-4F5C-BFCC-BA1201962589}"/>
+              <c16:uniqueId val="{00000000-AA87-4117-8361-911F80277862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$W$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СГ 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -3603,309 +4089,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$8:$C$107</c:f>
+              <c:f>Лист1!$W$8:$W$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.13621559198564537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77676475505876041</c:v>
+                  <c:v>3.050278547731379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5688992461841254</c:v>
+                  <c:v>7.1532235939337223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3526442506241558</c:v>
+                  <c:v>11.197067744080917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1728376181516635</c:v>
+                  <c:v>15.423528784827894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9057340809164667</c:v>
+                  <c:v>19.66725066099087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.693328815078341</c:v>
+                  <c:v>24.075678017381623</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6081702332474572</c:v>
+                  <c:v>27.857274854597716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3238512250580516</c:v>
+                  <c:v>32.045460162848727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1624934142358043</c:v>
+                  <c:v>34.914541627659737</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8292073002439997</c:v>
+                  <c:v>39.748652216432312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6679028666828746</c:v>
+                  <c:v>44.208285153989159</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.496140710719196</c:v>
+                  <c:v>51.211171796579762</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.451516899054109</c:v>
+                  <c:v>51.228992194875694</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.1572247199998</c:v>
+                  <c:v>56.788485481314957</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.148697295574367</c:v>
+                  <c:v>61.50173147739261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.888417665482635</c:v>
+                  <c:v>61.925034678317814</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.746011190694107</c:v>
+                  <c:v>69.284706754362688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.363662330120972</c:v>
+                  <c:v>70.627538517840293</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.239647436845374</c:v>
+                  <c:v>75.420043660602985</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.808107943815749</c:v>
+                  <c:v>82.953976488582541</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.655899021986951</c:v>
+                  <c:v>86.330707729872501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.877258018079161</c:v>
+                  <c:v>87.126593852251261</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.455382542194418</c:v>
+                  <c:v>92.458066125597256</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.171019969084611</c:v>
+                  <c:v>97.376888608928027</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.105477333753697</c:v>
+                  <c:v>99.07273449364753</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.459932166020547</c:v>
+                  <c:v>103.45726985977703</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.497895557658023</c:v>
+                  <c:v>109.73570536257843</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.698981532049515</c:v>
+                  <c:v>113.22742237635039</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23.486227326271873</c:v>
+                  <c:v>111.89225197689693</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.080206690649771</c:v>
+                  <c:v>121.41767466495341</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.699683459908275</c:v>
+                  <c:v>122.47602025702811</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25.796750710664025</c:v>
+                  <c:v>124.19140737890626</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.484555500199615</c:v>
+                  <c:v>136.61978349438377</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.479596802275548</c:v>
+                  <c:v>136.26678574297486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.921660264559396</c:v>
+                  <c:v>143.28614372054412</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.789453073620834</c:v>
+                  <c:v>143.25053772003872</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29.175389403170687</c:v>
+                  <c:v>147.87495809300697</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.55914456095562</c:v>
+                  <c:v>160.46642072961365</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.880171593815483</c:v>
+                  <c:v>156.60503377604886</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>31.016397947676992</c:v>
+                  <c:v>157.67397397050098</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.330653226643236</c:v>
+                  <c:v>169.14440498649921</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>33.912727828314345</c:v>
+                  <c:v>166.9727274172144</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.261786892257007</c:v>
+                  <c:v>177.49609434571025</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>34.276168390195707</c:v>
+                  <c:v>182.18185416634012</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>35.764862863212144</c:v>
+                  <c:v>182.89769766686013</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>36.136447736293299</c:v>
+                  <c:v>187.42623752987546</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>38.248971270683803</c:v>
+                  <c:v>178.50397740607829</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37.230659455672971</c:v>
+                  <c:v>187.81254187438654</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>37.7536418878747</c:v>
+                  <c:v>194.09668629810383</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38.796037752540187</c:v>
+                  <c:v>201.00616052881651</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.550229292540415</c:v>
+                  <c:v>203.05550451214282</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41.145898421951713</c:v>
+                  <c:v>208.18117672068419</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42.534211267425285</c:v>
+                  <c:v>209.89166956243741</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43.302533375238276</c:v>
+                  <c:v>225.77464238060196</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44.726073615465353</c:v>
+                  <c:v>213.84089184428311</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43.459615319348977</c:v>
+                  <c:v>232.0038981528028</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45.27504191238809</c:v>
+                  <c:v>231.88896092902189</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>45.738715179069217</c:v>
+                  <c:v>229.84016330063764</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45.718235155703184</c:v>
+                  <c:v>241.87623517959</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>47.494551499867214</c:v>
+                  <c:v>243.88254262342488</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>48.175974498025909</c:v>
+                  <c:v>241.19819779515194</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>49.910196792702678</c:v>
+                  <c:v>237.83290672201372</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>50.388304023118728</c:v>
+                  <c:v>245.08664224133673</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50.710393739804488</c:v>
+                  <c:v>259.81899734472836</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>52.016867340173157</c:v>
+                  <c:v>263.00632301483597</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52.178520066076373</c:v>
+                  <c:v>277.17801908493516</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>53.433006694867984</c:v>
+                  <c:v>269.53028825607657</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>54.749771571446608</c:v>
+                  <c:v>274.29493948964853</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>55.743359344840684</c:v>
+                  <c:v>279.09632008824161</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>56.627176443082824</c:v>
+                  <c:v>277.16343189689655</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>58.181912494606642</c:v>
+                  <c:v>281.55480435735899</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>57.240392489885636</c:v>
+                  <c:v>281.01715008425288</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>59.03014134849608</c:v>
+                  <c:v>292.72379248165271</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>58.165809058169465</c:v>
+                  <c:v>299.74457859849122</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>60.731664285854691</c:v>
+                  <c:v>295.22701336399047</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>60.269940659533994</c:v>
+                  <c:v>313.28375963963236</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>60.68752682489778</c:v>
+                  <c:v>309.83149562260598</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>62.242613169944804</c:v>
+                  <c:v>303.28590418308994</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>62.831981730742342</c:v>
+                  <c:v>313.13706925506244</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>64.26527777977509</c:v>
+                  <c:v>316.08599957990435</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>64.142929699751548</c:v>
+                  <c:v>333.17996647629366</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>65.817676074792843</c:v>
+                  <c:v>320.36782101217642</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>64.725294683241941</c:v>
+                  <c:v>327.41526431348268</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>67.446316757907582</c:v>
+                  <c:v>331.20189510235406</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>66.437051912256536</c:v>
+                  <c:v>346.58159120329356</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>69.272273970220667</c:v>
+                  <c:v>339.82546169751458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>68.754317101504412</c:v>
+                  <c:v>345.80204186679373</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>71.393226830545203</c:v>
+                  <c:v>353.77781598883973</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>70.962912001775521</c:v>
+                  <c:v>350.38085274409798</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>69.830429034886421</c:v>
+                  <c:v>383.88411445269719</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>69.984172143991628</c:v>
+                  <c:v>360.07788536861159</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>71.819837375890714</c:v>
+                  <c:v>367.42015789803656</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>72.518472181427526</c:v>
+                  <c:v>369.92999463631008</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>75.109729028771184</c:v>
+                  <c:v>382.01788870173755</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>73.261835094968717</c:v>
+                  <c:v>384.81491664988425</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>78.793227796543391</c:v>
+                  <c:v>376.79756978278186</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>77.764883654912651</c:v>
+                  <c:v>384.73487938511084</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>78.387732049713492</c:v>
+                  <c:v>394.71026058289522</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>80.336669924736299</c:v>
+                  <c:v>402.31605633099736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,7 +4399,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C1BB-4F5C-BFCC-BA1201962589}"/>
+              <c16:uniqueId val="{00000001-AA87-4117-8361-911F80277862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3970,15 +4456,50 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Величина искуственной погрешности</a:t>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>R,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92440424532209509"/>
+              <c:y val="0.87986930591124268"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4023,7 +4544,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4073,7 +4594,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4091,8 +4612,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>значение ошибки</a:t>
+                  <a:t>СКО,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="600" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4100,20 +4630,22 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.7458745874587462E-2"/>
-              <c:y val="4.2462293953592488E-2"/>
+              <c:x val="6.3542357678610883E-2"/>
+              <c:y val="5.9223275321464611E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4182,8 +4714,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.57242249421792568"/>
-          <c:y val="0.19043365643883595"/>
+          <c:x val="0.66968798309672828"/>
+          <c:y val="3.4761186379812792E-2"/>
           <c:w val="0.1109305891219043"/>
           <c:h val="0.12382831680663903"/>
         </c:manualLayout>
@@ -6427,27 +6959,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DABDAB7-092F-48AD-A12F-5C094F56CB38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA602E09-B646-4D47-945D-820F73A94B32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6463,23 +6997,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396815</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156714</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152579</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4">
+        <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B646D0B9-B92A-4091-97A2-EADE5798FD59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167B52CC-87EE-4FAE-AA57-4E8B7CB145EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6501,23 +7035,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396816</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>156714</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152579</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5">
+        <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA602E09-B646-4D47-945D-820F73A94B32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868A049B-2138-4B4C-B930-7255A5B71E28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6539,23 +7073,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>379562</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>139461</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>40436</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6">
+        <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD9001F-EDDA-477E-B138-A76AA9445AB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD5F07F-35C0-4A9C-BAFC-769A6FC7414A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6877,11 +7411,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA46A7C2-1F59-4A55-A8EB-1441AEF150D6}">
   <dimension ref="A4:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="N37" workbookViewId="0">
+      <selection activeCell="AF66" sqref="AF66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6891,12 +7425,29 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -6904,7 +7455,7 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -6936,10 +7487,10 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
